--- a/Python2.7/Python summary.xlsx
+++ b/Python2.7/Python summary.xlsx
@@ -12,14 +12,13 @@
     <sheet name="Git" sheetId="3" r:id="rId3"/>
     <sheet name="Python" sheetId="4" r:id="rId4"/>
     <sheet name="Symbols" sheetId="5" r:id="rId5"/>
-    <sheet name="@" sheetId="6" r:id="rId6"/>
-    <sheet name="tools" sheetId="7" r:id="rId7"/>
-    <sheet name="SQL" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId10"/>
+    <sheet name="tools" sheetId="7" r:id="rId6"/>
+    <sheet name="Func" sheetId="9" r:id="rId7"/>
+    <sheet name="F" sheetId="11" r:id="rId8"/>
+    <sheet name="@" sheetId="6" r:id="rId9"/>
+    <sheet name="SQL" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -948,7 +947,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1191">
   <si>
     <t>Python教程</t>
   </si>
@@ -2215,13 +2214,7 @@
     <t>right bracket</t>
   </si>
   <si>
-    <t>list.append()</t>
-  </si>
-  <si>
     <t>ex32</t>
-  </si>
-  <si>
-    <t>appends to the end of the list</t>
   </si>
   <si>
     <t>for-loops</t>
@@ -3324,12 +3317,6 @@
     <t>移除并返回list中的任意一个值，无输入值时默认为最后一个</t>
   </si>
   <si>
-    <t>list[]</t>
-  </si>
-  <si>
-    <t>list[0:5:2]</t>
-  </si>
-  <si>
     <t>dict</t>
   </si>
   <si>
@@ -3349,9 +3336,6 @@
   </si>
   <si>
     <t>dict.get('a')</t>
-  </si>
-  <si>
-    <t>enumerate</t>
   </si>
   <si>
     <t>for index, item in enumerate(sequence):
@@ -4469,9 +4453,6 @@
     <t>round()</t>
   </si>
   <si>
-    <t>range(start, stop, step)</t>
-  </si>
-  <si>
     <t>一定范围内的数字</t>
   </si>
   <si>
@@ -4479,15 +4460,6 @@
   </si>
   <si>
     <t>len()</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>len(string) or len(dic)</t>
-  </si>
-  <si>
-    <t>enumerate会将数组或列表组成一个索引序列。使我们再获取索引和索引内容的时候更加方便</t>
   </si>
   <si>
     <t>id()</t>
@@ -4800,12 +4772,540 @@
   <si>
     <t>chr()：char: 单个字符，数字对应当个ASCII字符</t>
   </si>
+  <si>
+    <t>成员关系操作符</t>
+  </si>
+  <si>
+    <t>in / not in</t>
+  </si>
+  <si>
+    <t>s=[1,2,3,4]
+print s[::-1]     #下标范围[0,0],步长是-1，则从后(4,包括4)往前切取所有，输出：[4, 3, 2, 1]
+print s[::-2]     #下标范围[0,0],步长是-2，则从后(4，包括4)往前跳过2位切取，输出：[4, 2]
+print s[::]        #下标范围[0,0],步长是0，则从前(1,包括1)往后切取所有，输出：[1, 2, 3, 4]
+print s[::2]       #下标范围[0,0],步长是2，则从前(1,包括1)往后跳过2位切取，输出：[1, 3]
+print s[1:4:2]  #下标范围[1,4],步长是2，则从下标为1(2)到下标为4(4)跳过2位切取，输出：[2, 4]</t>
+  </si>
+  <si>
+    <t>string module</t>
+  </si>
+  <si>
+    <t>string.uppercase</t>
+  </si>
+  <si>
+    <t>string.lowercase</t>
+  </si>
+  <si>
+    <t>string.whitespace</t>
+  </si>
+  <si>
+    <t>string.digits</t>
+  </si>
+  <si>
+    <t>string.punctuation</t>
+  </si>
+  <si>
+    <t>s1 + s2</t>
+  </si>
+  <si>
+    <t>操作符+号两边连接同类型的，并且连接之后创建一个新的对象，如list只能与list相加，而不能一个元素添加进list</t>
+  </si>
+  <si>
+    <t>s1 = [1,2,3,4,5,6,7]
+s2 = [2,3,6]
+print s1 + s2
+[1, 2, 3, 4, 5, 6, 7, 2, 3, 6]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s = [1, 2, 3, 4]
+&gt;&gt;&gt; print s * 4
+[1, 2, 3, 4, 1, 2, 3, 4, 1, 2, 3, 4, 1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>*还可以作为重复操作符</t>
+  </si>
+  <si>
+    <t>向列表中添加一个对象obj</t>
+  </si>
+  <si>
+    <t>list[start: stop: step]</t>
+  </si>
+  <si>
+    <t>list.count()</t>
+  </si>
+  <si>
+    <t>返回一个对象在列表中出现的次数</t>
+  </si>
+  <si>
+    <t>print lis.count('a)</t>
+  </si>
+  <si>
+    <t>list.append(obj)</t>
+  </si>
+  <si>
+    <t>list.extend(seq)</t>
+  </si>
+  <si>
+    <t>把序列seq的内容添加到列表中</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = [1,2,3]
+&gt;&gt;&gt; li.append('good')
+&gt;&gt;&gt; print li
+[1, 2, 3, 'good']
+&gt;&gt;&gt; li = [1,2,3]
+&gt;&gt;&gt; seq = ['a', 'abc']
+&gt;&gt;&gt; li.append(seq)
+&gt;&gt;&gt; print li
+[1, 2, 3, ['a', 'abc']]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = [1,2,3]
+&gt;&gt;&gt; li.extend('good')
+&gt;&gt;&gt; print li
+[1, 2, 3, 'g', 'o', 'o', 'd']
+&gt;&gt;&gt; li = [1,2,3]
+&gt;&gt;&gt; obj = ['a', 'abc']
+&gt;&gt;&gt; li.extend(obj)
+&gt;&gt;&gt; print li
+[1, 2, 3, 'a', 'abc']</t>
+  </si>
+  <si>
+    <t>list.index(obj,i=0,j=len(list))</t>
+  </si>
+  <si>
+    <t>返回list[k]==obj的k值，并且k的范围在 i&lt;=k&lt;j，否则引发ValueError异常</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = ['a','b','c','a','c','a']
+&gt;&gt;&gt; print li.index('a')
+&gt;&gt;&gt; print li.index('a', 1,len(li)-1)
+3</t>
+  </si>
+  <si>
+    <t>list.insert(index, obj)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = ['a', 'b']
+&gt;&gt;&gt; li.insert(1,'Z')
+&gt;&gt;&gt; print li
+['a', 'Z', 'b']</t>
+  </si>
+  <si>
+    <t>在索引量为index的位置插入对象obj（必须两个参数）</t>
+  </si>
+  <si>
+    <t>list.remove(obj)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = ['a','b','c','a','c','a']
+&gt;&gt;&gt; li.remove('a')
+&gt;&gt;&gt; print li
+['b', 'c', 'a', 'c', 'a']</t>
+  </si>
+  <si>
+    <t>从列表中删除对象obj，如果有多个相同的值，则只删除最前面的一个</t>
+  </si>
+  <si>
+    <t>list.reverse()</t>
+  </si>
+  <si>
+    <t>原地翻转列表</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = ['a','b']
+&gt;&gt;&gt;li.reverse()
+&gt;&gt;&gt; print li
+['b', 'a']</t>
+  </si>
+  <si>
+    <t>list.sort()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li = ['b','c','M',1,'ba']
+&gt;&gt;&gt; li.sort()
+&gt;&gt;&gt; print li
+[1, 'M', 'b', 'ba', 'c']</t>
+  </si>
+  <si>
+    <t>#lis.sort(cmp=None, key=None, reverse=False)
+注意字符串排序时使用字典序，而不是字母序</t>
+  </si>
+  <si>
+    <t>注意字符串排序时使用字典序，而不是字母序</t>
+  </si>
+  <si>
+    <t>tuple 元组</t>
+  </si>
+  <si>
+    <t>1、类似列表，但不可变类型，正因如此，它可以做一个字典的key
+2、当处理一组对象时，这个组默认是元组类型（老写错"元祖"）
+3、所有的多对象，逗号分隔的，没有明确用符号定义的这些都默认为元组类型
+4、逗号不要少，尽量都写，即使只有一个元素</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 'abc',1,2,'x',True
+('abc', 1, 2, 'x', True)
+&gt;&gt;&gt; x,y =1,2
+&gt;&gt;&gt; x,y
+(1, 2)
+-----------------------------
+def foo1():
+   return obj1,obj2,obj3
+def foo2():
+   return [obj1,obj2,obj3]
+def foo3():
+   return (obj1,obj2,obj3)</t>
+  </si>
+  <si>
+    <t>1.   无法向元组添加元素。元组没有  append() 或 extend() 方法。 
+2.   不能从元组中删除元素。元组没有 remove() 或 pop()  方法。 
+3.   可以 在元组中查找元素，由于该操作不改变元组。 
+4.   还可以使用 in 运算符检查某元素是否存在于元组中。 那么元组有什么好处呢？ 
+•   元组的速度比列表更快。如果定义了一系列常量值，而所需做的仅是对它进行遍历，那么请使用元组替代列表。 
+ •   对不需要改变的数据进行“ 写保护” 将使得代码更加安全。使用元组替代列表就像是有一条隐含的 assert 语句显示该数据是
+•   一些元组可用作字典键（特别是包含字符串、数值和其它元组这样的不可变数据的元组）。列表永远不能当做字典键使用，因为列表不是不可变的。</t>
+  </si>
+  <si>
+    <t>set 集合</t>
+  </si>
+  <si>
+    <t>集合(set)：把不同的元素组成一起形成集合，是python基本的数据类型。
+集合元素(set elements):组成集合的成员</t>
+  </si>
+  <si>
+    <t>1 &gt;&gt;&gt; li=['a','b','c','a']
+2 &gt;&gt;&gt; se =set(li)
+3 &gt;&gt;&gt; se
+4 set(['a', 'c', 'b'])</t>
+  </si>
+  <si>
+    <t>集合对象是一组无序排列的可哈希的值：集合成员可以做字典的键</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; li=[['a','b','c'],['a','c']]
+&gt;&gt;&gt; se = set(li)
+Traceback (most recent call last):
+  File "&lt;pyshell#29&gt;", line 1, in &lt;module&gt;
+    se = set(li)
+TypeError: list objects are unhashable</t>
+  </si>
+  <si>
+    <t>集合分类：可变集合、不可变集合
+可变集合(set)：可添加和删除元素，非可哈希的，不能用作字典的键，也不能做其他集合的元素
+不可变集合(frozenset)：与上面恰恰相反</t>
+  </si>
+  <si>
+    <t>1、创建集合
+由于集合没有自己的语法格式，只能通过集合的工厂方法set()和frozenset()创建</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s = set('beginman')
+&gt;&gt;&gt; s
+set(['a', 'b', 'e', 'g', 'i', 'm', 'n'])
+&gt;&gt;&gt; t = frozenset('pythonman')
+&gt;&gt;&gt; t
+frozenset(['a', 'h', 'm', 'o', 'n', 'p', 't', 'y'])</t>
+  </si>
+  <si>
+    <t>2、访问集合
+由于集合本身是无序的，所以不能为集合创建索引或切片操作，只能循环遍历或使用in、not in来访问或判断集合元素。</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 'a' in s
+True
+&gt;&gt;&gt; 'z' in s
+False
+&gt;&gt;&gt; for i in s:
+    print I,
+a b e g I m n</t>
+  </si>
+  <si>
+    <t>3、更新集合
+可使用以下内建方法来更新：
+s.add()
+s.update()
+s.remove()
+注意只有可变集合才能更新：</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; se
+set(['a', 'h', 'm', 'o', 'n', 'p', 't', 'y'])
+&gt;&gt;&gt; se.add(0)
+&gt;&gt;&gt; se.update('MM')
+&gt;&gt;&gt; se.update('Django')
+&gt;&gt;&gt; se.remove('D')
+&gt;&gt;&gt; se
+set(['a', 0, 'g', 'h', 'j', 'm', 'o', 'n', 'p', 'M', 't', 'y'])</t>
+  </si>
+  <si>
+    <t>del：删除集合本身</t>
+  </si>
+  <si>
+    <t>集合类型操作符</t>
+  </si>
+  <si>
+    <t>1、in ,not in</t>
+  </si>
+  <si>
+    <t>2、集合等价与不等价(==, !=)</t>
+  </si>
+  <si>
+    <t>3、子集、超集(见上表)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; set('shop')&lt;set('cheeshop')
+True
+&gt;&gt;&gt; set('bookshop')&gt;=set('shop')
+True</t>
+  </si>
+  <si>
+    <t>4、联合(|)
+联合(union)操作与集合的OR操作其实等价的，联合符号有个等价的方法，union()。</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s1=set('begin')
+&gt;&gt;&gt; s2=set('man')
+&gt;&gt;&gt; s3=s1|s2
+&gt;&gt;&gt; s3
+set(['a', 'b', 'e', 'g', 'i', 'm', 'n'])
+&gt;&gt;&gt; s1.union(s2)
+set(['a', 'b', 'e', 'g', 'i', 'm', 'n'])</t>
+  </si>
+  <si>
+    <t>5、交集(&amp;)
+与集合AND等价，交集符号的等价方法是intersection()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s1&amp;s2
+set(['n'])
+&gt;&gt;&gt; s1.intersection(s2)
+set(['n'])</t>
+  </si>
+  <si>
+    <t>6、查补(-)
+等价方法是difference()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s1-s2
+set(['i', 'b', 'e', 'g'])
+&gt;&gt;&gt; s1.difference(s2)
+set(['i', 'b', 'e', 'g'])</t>
+  </si>
+  <si>
+    <t>7、对称差分(^)
+对称差分是集合的XOR(‘异或’)，取得的元素属于s1,s2但不同时属于s1和s2.其等价方法symmetric_difference()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s1^s2
+set(['a', 'b', 'e', 'g', 'i', 'm'])
+&gt;&gt;&gt; s1.symmetric_difference(s2)
+set(['a', 'b', 'e', 'g', 'i', 'm'])</t>
+  </si>
+  <si>
+    <t>注意：集合之间and,or</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s1 and s2
+set(['a', 'm', 'n'])   #取 s2
+&gt;&gt;&gt; s1 or s2
+set(['i', 'b', 'e', 'g', 'n']) #取 s1
+&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>集合、列表、元组、字符串之间转换</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list(s1)
+['i', 'b', 'e', 'g', 'n']
+&gt;&gt;&gt; str(s1)
+"set(['i', 'b', 'e', 'g', 'n'])"
+&gt;&gt;&gt; tuple(s1)
+('i', 'b', 'e', 'g', 'n')</t>
+  </si>
+  <si>
+    <t>应用
+'''最简单的去重方式'''</t>
+  </si>
+  <si>
+    <t>lis = [1,2,3,4,1,2,3,4]
+print list(set(lis))    #[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>返回集合元素个数</t>
+  </si>
+  <si>
+    <t>所有集合方法</t>
+  </si>
+  <si>
+    <t>s.issubset(t)</t>
+  </si>
+  <si>
+    <t>s.issuperset(t)</t>
+  </si>
+  <si>
+    <t>s.union(t)</t>
+  </si>
+  <si>
+    <t>s.intersection(t)</t>
+  </si>
+  <si>
+    <t>s.difference(t)</t>
+  </si>
+  <si>
+    <t>s.symmetric_difference(t)</t>
+  </si>
+  <si>
+    <t>s.copy()</t>
+  </si>
+  <si>
+    <t>仅适合可变集合</t>
+  </si>
+  <si>
+    <t>s.update(t)</t>
+  </si>
+  <si>
+    <t>s.intersection_update(t)</t>
+  </si>
+  <si>
+    <t>s.difference_update(t)</t>
+  </si>
+  <si>
+    <t>s.symmetric_difference_update(t)</t>
+  </si>
+  <si>
+    <t>s.add(obj)</t>
+  </si>
+  <si>
+    <t>s.remove(obj)</t>
+  </si>
+  <si>
+    <t>s.discard(obj)</t>
+  </si>
+  <si>
+    <t>s.pop()</t>
+  </si>
+  <si>
+    <t>s.clear()</t>
+  </si>
+  <si>
+    <t>1、if语句可以通过布尔操作符and、or和not实现多重判断条件或否定判断条件
+2、if...elif...elif...else..
+3、三元操作符：Python2.5后：X if C else Y</t>
+  </si>
+  <si>
+    <t>示例1</t>
+  </si>
+  <si>
+    <t>x,y=4,3
+if x&gt;y:
+    s = y
+else:
+    s= x</t>
+  </si>
+  <si>
+    <t>x,y = 4,3
+s = (x&lt;y and [x] or [y])[0]</t>
+  </si>
+  <si>
+    <t>x,y = 4,3
+s = x if x&lt;y else y</t>
+  </si>
+  <si>
+    <t>示例1更简洁的写法1</t>
+  </si>
+  <si>
+    <t>示例1更简洁的写法2</t>
+  </si>
+  <si>
+    <t>count = 0 
+while(count&lt;9):
+        .....
+或者:
+while True:
+        .....</t>
+  </si>
+  <si>
+    <t>while循环经常用到</t>
+  </si>
+  <si>
+    <t>open(file, 'r')</t>
+  </si>
+  <si>
+    <t>open(file, 'a')</t>
+  </si>
+  <si>
+    <t>以添加方式打开file</t>
+  </si>
+  <si>
+    <t>以只读模式打开</t>
+  </si>
+  <si>
+    <t>以写入模式打开</t>
+  </si>
+  <si>
+    <t>s = ['a','b','c','d','e']
+#No1：项
+for obj in s:
+    print obj,          #a b c d e
+print range(len(s))     #[0, 1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>示例2</t>
+  </si>
+  <si>
+    <t>#No2：索引
+for obj in range(len(s)):
+    print s[obj],       #a b c d e</t>
+  </si>
+  <si>
+    <t>#No3:使用项和索引迭代
+for i,eachline in enumerate(s):
+    print i,eachline
+#0 a
+#1 b
+#2 c
+#3 d
+#4 e</t>
+  </si>
+  <si>
+    <t>示例3</t>
+  </si>
+  <si>
+    <t>返回两个对象，一个是下标索引(%d),另一个是下标索引对应的元素(%s)</t>
+  </si>
+  <si>
+    <t>结束当前循环，跳到下一条语句</t>
+  </si>
+  <si>
+    <t>终止当前循环，忽略剩余的部分，然后回到循环的顶端，在开始执行下一次迭代前，验证是否通过，然后再进行下一次的迭代。</t>
+  </si>
+  <si>
+    <t>是一个很好的占位符，不做任何事情。
+注意：编写代码时，最好先别结构定下来，如果不想让一些代码干扰，那么最好的方法就是使用pass</t>
+  </si>
+  <si>
+    <t>其他语言中，else只能用于if条件句，但是Python不同其他语言，else还能与for、while一起使用。在循环后处理，并且如果遇到break，则也会跳过else的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def showMaxFactor(num):
+    count = num / 2
+    while count &gt; 1:
+        if num % count == 0:
+            print u'%d的最大公约数是: %d' %(num,count)
+            break
+        count -= 1
+    else:
+        print num,u'是素数'
+for eachNum in range(10,21):
+    showMaxFactor(eachNum)  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4977,8 +5477,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4994,6 +5503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5507,7 +6022,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5727,9 +6242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5739,15 +6251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5756,9 +6259,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -5777,21 +6277,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5826,9 +6311,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -5838,13 +6320,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6795,531 +7322,379 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A2:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="73.5703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="101" t="s">
-        <v>990</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="101" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="101" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="101" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="101" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="101" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="101" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="101" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="101" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="101" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="101" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="101" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="101" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="101" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="101" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="103" t="s">
-        <v>1060</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="83" t="s">
+        <v>876</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="83" t="s">
+        <v>879</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="83" t="s">
+        <v>899</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" s="59"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="83" t="s">
+        <v>887</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" s="61"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="83" t="s">
+        <v>889</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>890</v>
+      </c>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="83" t="s">
+        <v>891</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="83" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="83" t="s">
+        <v>895</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="83" t="s">
+        <v>897</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="C11" s="61"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="83" t="s">
+        <v>882</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="83" t="s">
+        <v>885</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75">
+      <c r="A16" s="83" t="s">
+        <v>886</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="83" t="s">
+        <v>901</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="97" t="s">
-        <v>992</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="97" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="97" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="97" t="s">
-        <v>1014</v>
+      <c r="A18" s="83" t="s">
+        <v>903</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="83" t="s">
+        <v>905</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="83" t="s">
+        <v>906</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="97" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="97" t="s">
-        <v>1022</v>
+      <c r="A22" s="83" t="s">
+        <v>908</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="97" t="s">
-        <v>987</v>
+      <c r="A24" s="83" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="97" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="97" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="97" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="97" t="s">
-        <v>1042</v>
+      <c r="A25" s="83" t="s">
+        <v>915</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="120">
+      <c r="A26" s="83" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="84" t="s">
+        <v>919</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="84" t="s">
+        <v>921</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="97" t="s">
-        <v>1045</v>
+      <c r="A29" s="83" t="s">
+        <v>925</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="97" t="s">
-        <v>1048</v>
+      <c r="A30" s="83" t="s">
+        <v>924</v>
+      </c>
+      <c r="B30" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="97" t="s">
-        <v>1053</v>
+      <c r="A31" s="83" t="s">
+        <v>927</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="97" t="s">
-        <v>1057</v>
+      <c r="A32" s="83" t="s">
+        <v>929</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A33" s="104" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="97" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="97" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="97" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="97" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="97" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="97" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="97" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="97" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="97" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="97" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="97" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="97" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="97" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="97" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="97" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A50" s="104" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="97" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45">
-      <c r="A54" s="97" t="s">
-        <v>993</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="97" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="97" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="97" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="97" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="97" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="97" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="97" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="97" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="135">
-      <c r="A63" s="97" t="s">
-        <v>994</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="97" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="97" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="97" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A67" s="104" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="102" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="102" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="102" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="102" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="102" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="102" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="102" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="102" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="102" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="102" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="102" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="102" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="102" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="102" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="165">
-      <c r="A83" s="102" t="s">
-        <v>991</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A84" s="105" t="s">
-        <v>1062</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="83" t="s">
+        <v>931</v>
+      </c>
+      <c r="B33" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="83" t="s">
+        <v>933</v>
+      </c>
+      <c r="B34" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="84" t="s">
+        <v>935</v>
+      </c>
+      <c r="B35" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="83" t="s">
+        <v>937</v>
+      </c>
+      <c r="B36" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="83" t="s">
+        <v>939</v>
+      </c>
+      <c r="B37" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="83" t="s">
+        <v>941</v>
+      </c>
+      <c r="B38" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="84" t="s">
+        <v>943</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="83" t="s">
+        <v>945</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="83" t="s">
+        <v>947</v>
+      </c>
+      <c r="B41" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="84" t="s">
+        <v>949</v>
+      </c>
+      <c r="B42" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="84" t="s">
+        <v>951</v>
+      </c>
+      <c r="B43" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="84" t="s">
+        <v>953</v>
+      </c>
+      <c r="B44" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="84" t="s">
+        <v>955</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="84" t="s">
+        <v>957</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="83" t="s">
+        <v>959</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="abs" tooltip="abs" display="http://docs.python.org/2/library/functions.html - abs"/>
-    <hyperlink ref="A2" r:id="rId2" location="all" tooltip="all" display="http://docs.python.org/2/library/functions.html - all"/>
-    <hyperlink ref="A3" r:id="rId3" location="any" tooltip="any" display="http://docs.python.org/2/library/functions.html - any"/>
-    <hyperlink ref="A4" r:id="rId4" location="basestring" tooltip="basestring" display="http://docs.python.org/2/library/functions.html - basestring"/>
-    <hyperlink ref="A5" r:id="rId5" location="bin" tooltip="bin" display="http://docs.python.org/2/library/functions.html - bin"/>
-    <hyperlink ref="A6" r:id="rId6" location="bool" tooltip="bool" display="http://docs.python.org/2/library/functions.html - bool"/>
-    <hyperlink ref="A7" r:id="rId7" location="bytearray" tooltip="bytearray" display="http://docs.python.org/2/library/functions.html - bytearray"/>
-    <hyperlink ref="A8" r:id="rId8" location="callable" tooltip="callable" display="http://docs.python.org/2/library/functions.html - callable"/>
-    <hyperlink ref="A9" r:id="rId9" location="chr" tooltip="chr" display="http://docs.python.org/2/library/functions.html - chr"/>
-    <hyperlink ref="A10" r:id="rId10" location="classmethod" tooltip="classmethod" display="http://docs.python.org/2/library/functions.html - classmethod"/>
-    <hyperlink ref="A11" r:id="rId11" location="cmp" tooltip="cmp" display="http://docs.python.org/2/library/functions.html - cmp"/>
-    <hyperlink ref="A12" r:id="rId12" location="compile" tooltip="compile" display="http://docs.python.org/2/library/functions.html - compile"/>
-    <hyperlink ref="A13" r:id="rId13" location="complex" tooltip="complex" display="http://docs.python.org/2/library/functions.html - complex"/>
-    <hyperlink ref="A14" r:id="rId14" location="delattr" tooltip="delattr" display="http://docs.python.org/2/library/functions.html - delattr"/>
-    <hyperlink ref="A15" r:id="rId15" location="func-dict" display="http://docs.python.org/2/library/functions.html - func-dict"/>
-    <hyperlink ref="A16" r:id="rId16" location="dir" tooltip="dir" display="http://docs.python.org/2/library/functions.html - dir"/>
-    <hyperlink ref="A18" r:id="rId17" location="divmod" tooltip="divmod" display="http://docs.python.org/2/library/functions.html - divmod"/>
-    <hyperlink ref="A19" r:id="rId18" location="enumerate" tooltip="enumerate" display="http://docs.python.org/2/library/functions.html - enumerate"/>
-    <hyperlink ref="A20" r:id="rId19" location="eval" tooltip="eval" display="http://docs.python.org/2/library/functions.html - eval"/>
-    <hyperlink ref="A21" r:id="rId20" location="execfile" tooltip="execfile" display="http://docs.python.org/2/library/functions.html - execfile"/>
-    <hyperlink ref="A22" r:id="rId21" location="file" tooltip="file" display="http://docs.python.org/2/library/functions.html - file"/>
-    <hyperlink ref="A23" r:id="rId22" location="filter" tooltip="filter" display="http://docs.python.org/2/library/functions.html - filter"/>
-    <hyperlink ref="A24" r:id="rId23" location="float" tooltip="float" display="http://docs.python.org/2/library/functions.html - float"/>
-    <hyperlink ref="A25" r:id="rId24" location="format" tooltip="format" display="http://docs.python.org/2/library/functions.html - format"/>
-    <hyperlink ref="A26" r:id="rId25" location="func-frozenset" display="http://docs.python.org/2/library/functions.html - func-frozenset"/>
-    <hyperlink ref="A27" r:id="rId26" location="getattr" tooltip="getattr" display="http://docs.python.org/2/library/functions.html - getattr"/>
-    <hyperlink ref="A28" r:id="rId27" location="globals" tooltip="globals" display="http://docs.python.org/2/library/functions.html - globals"/>
-    <hyperlink ref="A29" r:id="rId28" location="hasattr" tooltip="hasattr" display="http://docs.python.org/2/library/functions.html - hasattr"/>
-    <hyperlink ref="A30" r:id="rId29" location="hash" tooltip="hash" display="http://docs.python.org/2/library/functions.html - hash"/>
-    <hyperlink ref="A31" r:id="rId30" location="help" tooltip="help" display="http://docs.python.org/2/library/functions.html - help"/>
-    <hyperlink ref="A32" r:id="rId31" location="hex" tooltip="hex" display="http://docs.python.org/2/library/functions.html - hex"/>
-    <hyperlink ref="A33" r:id="rId32" location="id" tooltip="id" display="http://docs.python.org/2/library/functions.html - id"/>
-    <hyperlink ref="A35" r:id="rId33" location="input" tooltip="input" display="http://docs.python.org/2/library/functions.html - input"/>
-    <hyperlink ref="A36" r:id="rId34" location="int" tooltip="int" display="http://docs.python.org/2/library/functions.html - int"/>
-    <hyperlink ref="A37" r:id="rId35" location="isinstance" tooltip="isinstance" display="http://docs.python.org/2/library/functions.html - isinstance"/>
-    <hyperlink ref="A38" r:id="rId36" location="issubclass" tooltip="issubclass" display="http://docs.python.org/2/library/functions.html - issubclass"/>
-    <hyperlink ref="A39" r:id="rId37" location="iter" tooltip="iter" display="http://docs.python.org/2/library/functions.html - iter"/>
-    <hyperlink ref="A40" r:id="rId38" location="len" tooltip="len" display="http://docs.python.org/2/library/functions.html - len"/>
-    <hyperlink ref="A41" r:id="rId39" location="list" tooltip="list" display="http://docs.python.org/2/library/functions.html - list"/>
-    <hyperlink ref="A42" r:id="rId40" location="locals" tooltip="locals" display="http://docs.python.org/2/library/functions.html - locals"/>
-    <hyperlink ref="A43" r:id="rId41" location="long" tooltip="long" display="http://docs.python.org/2/library/functions.html - long"/>
-    <hyperlink ref="A44" r:id="rId42" location="map" tooltip="map" display="http://docs.python.org/2/library/functions.html - map"/>
-    <hyperlink ref="A45" r:id="rId43" location="max" tooltip="max" display="http://docs.python.org/2/library/functions.html - max"/>
-    <hyperlink ref="A46" r:id="rId44" location="func-memoryview" display="http://docs.python.org/2/library/functions.html - func-memoryview"/>
-    <hyperlink ref="A47" r:id="rId45" location="min" tooltip="min" display="http://docs.python.org/2/library/functions.html - min"/>
-    <hyperlink ref="A48" r:id="rId46" location="next" tooltip="next" display="http://docs.python.org/2/library/functions.html - next"/>
-    <hyperlink ref="A49" r:id="rId47" location="object" tooltip="object" display="http://docs.python.org/2/library/functions.html - object"/>
-    <hyperlink ref="A50" r:id="rId48" location="oct" tooltip="oct" display="http://docs.python.org/2/library/functions.html - oct"/>
-    <hyperlink ref="A52" r:id="rId49" location="open" tooltip="open" display="http://docs.python.org/2/library/functions.html - open"/>
-    <hyperlink ref="A53" r:id="rId50" location="ord" tooltip="ord" display="http://docs.python.org/2/library/functions.html - ord"/>
-    <hyperlink ref="A54" r:id="rId51" location="pow" tooltip="pow" display="http://docs.python.org/2/library/functions.html - pow"/>
-    <hyperlink ref="A55" r:id="rId52" location="print" tooltip="print" display="http://docs.python.org/2/library/functions.html - print"/>
-    <hyperlink ref="A56" r:id="rId53" location="property" tooltip="property" display="http://docs.python.org/2/library/functions.html - property"/>
-    <hyperlink ref="A57" r:id="rId54" location="range" tooltip="range" display="http://docs.python.org/2/library/functions.html - range"/>
-    <hyperlink ref="A58" r:id="rId55" location="raw_input" tooltip="raw_input" display="http://docs.python.org/2/library/functions.html - raw_input"/>
-    <hyperlink ref="A59" r:id="rId56" location="reduce" tooltip="reduce" display="http://docs.python.org/2/library/functions.html - reduce"/>
-    <hyperlink ref="A60" r:id="rId57" location="reload" tooltip="reload" display="http://docs.python.org/2/library/functions.html - reload"/>
-    <hyperlink ref="A61" r:id="rId58" location="func-repr" display="http://docs.python.org/2/library/functions.html - func-repr"/>
-    <hyperlink ref="A62" r:id="rId59" location="reversed" tooltip="reversed" display="http://docs.python.org/2/library/functions.html - reversed"/>
-    <hyperlink ref="A63" r:id="rId60" location="round" tooltip="round" display="http://docs.python.org/2/library/functions.html - round"/>
-    <hyperlink ref="A64" r:id="rId61" location="func-set" display="http://docs.python.org/2/library/functions.html - func-set"/>
-    <hyperlink ref="A65" r:id="rId62" location="setattr" tooltip="setattr" display="http://docs.python.org/2/library/functions.html - setattr"/>
-    <hyperlink ref="A66" r:id="rId63" location="slice" tooltip="slice" display="http://docs.python.org/2/library/functions.html - slice"/>
-    <hyperlink ref="A67" r:id="rId64" location="sorted" tooltip="sorted" display="http://docs.python.org/2/library/functions.html - sorted"/>
-    <hyperlink ref="A69" r:id="rId65" location="staticmethod" tooltip="staticmethod" display="http://docs.python.org/2/library/functions.html - staticmethod"/>
-    <hyperlink ref="A70" r:id="rId66" location="str" tooltip="str" display="http://docs.python.org/2/library/functions.html - str"/>
-    <hyperlink ref="A71" r:id="rId67" location="sum" tooltip="sum" display="http://docs.python.org/2/library/functions.html - sum"/>
-    <hyperlink ref="A72" r:id="rId68" location="super" tooltip="super" display="http://docs.python.org/2/library/functions.html - super"/>
-    <hyperlink ref="A73" r:id="rId69" location="tuple" tooltip="tuple" display="http://docs.python.org/2/library/functions.html - tuple"/>
-    <hyperlink ref="A74" r:id="rId70" location="type" tooltip="type" display="http://docs.python.org/2/library/functions.html - type"/>
-    <hyperlink ref="A75" r:id="rId71" location="unichr" tooltip="unichr" display="http://docs.python.org/2/library/functions.html - unichr"/>
-    <hyperlink ref="A76" r:id="rId72" location="unicode" tooltip="unicode" display="http://docs.python.org/2/library/functions.html - unicode"/>
-    <hyperlink ref="A77" r:id="rId73" location="vars" tooltip="vars" display="http://docs.python.org/2/library/functions.html - vars"/>
-    <hyperlink ref="A78" r:id="rId74" location="xrange" tooltip="xrange" display="http://docs.python.org/2/library/functions.html - xrange"/>
-    <hyperlink ref="A79" r:id="rId75" location="zip" tooltip="zip" display="http://docs.python.org/2/library/functions.html - zip"/>
-    <hyperlink ref="A80" r:id="rId76" location="__import__" tooltip="__import__" display="http://docs.python.org/2/library/functions.html - __import__"/>
-    <hyperlink ref="A81" r:id="rId77" location="apply" tooltip="apply" display="http://docs.python.org/2/library/functions.html - apply"/>
-    <hyperlink ref="A82" r:id="rId78" location="buffer" tooltip="buffer" display="http://docs.python.org/2/library/functions.html - buffer"/>
-    <hyperlink ref="A83" r:id="rId79" location="coerce" tooltip="coerce" display="http://docs.python.org/2/library/functions.html - coerce"/>
-    <hyperlink ref="A84" r:id="rId80" location="intern" tooltip="intern" display="http://docs.python.org/2/library/functions.html - intern"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7345,146 +7720,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="7" t="s">
@@ -7510,17 +7885,17 @@
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="7" t="s">
@@ -7579,8 +7954,8 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
@@ -7594,33 +7969,33 @@
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="7" t="s">
@@ -7643,50 +8018,50 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="10" t="s">
@@ -7704,29 +8079,29 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="10" t="s">
@@ -7744,9 +8119,9 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="10" t="s">
@@ -7764,18 +8139,18 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="10" t="s">
         <v>157</v>
       </c>
@@ -7796,10 +8171,10 @@
       <c r="A26" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="10" t="s">
         <v>153</v>
       </c>
@@ -7810,41 +8185,41 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="10" t="s">
@@ -7866,17 +8241,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -7898,49 +8273,49 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -7954,23 +8329,23 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="10" t="s">
@@ -7984,21 +8359,21 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="10" t="s">
         <v>133</v>
       </c>
@@ -8022,11 +8397,11 @@
       <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="10" t="s">
@@ -8046,11 +8421,11 @@
       <c r="G40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="92" t="s">
+      <c r="H40" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="10" t="s">
@@ -8070,20 +8445,20 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
@@ -8092,9 +8467,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -8119,11 +8494,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="E14:F14"/>
@@ -8140,27 +8531,11 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8600,7 +8975,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8612,36 +8987,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="24"/>
+    <col min="4" max="4" width="73.5703125" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="34" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>417</v>
+        <v>710</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>415</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8650,7 +9026,7 @@
       <c r="A4" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="55" t="s">
         <v>378</v>
       </c>
@@ -8675,26 +9051,26 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
     </row>
@@ -8702,8 +9078,8 @@
       <c r="A10" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>704</v>
+      <c r="B10" s="32" t="s">
+        <v>699</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>383</v>
@@ -8712,110 +9088,110 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="67"/>
-      <c r="B11" s="63"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:4">
-      <c r="A13" s="65" t="s">
-        <v>790</v>
-      </c>
-      <c r="B13" s="58"/>
+      <c r="A13" s="113" t="s">
+        <v>785</v>
+      </c>
+      <c r="B13" s="71"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" ht="60">
       <c r="A14" s="66" t="s">
-        <v>844</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>846</v>
+        <v>839</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>841</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="90">
       <c r="A15" s="66"/>
       <c r="C15" s="32" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4" ht="45">
       <c r="A16" s="66" t="s">
-        <v>842</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>845</v>
+        <v>837</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>840</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D16" s="61"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="66" t="s">
+        <v>823</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C19" s="75" t="s">
+        <v>834</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="78" t="s">
         <v>829</v>
       </c>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="C20" s="75" t="s">
+        <v>835</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4" ht="75">
+      <c r="A21" s="75" t="s">
         <v>831</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="76" t="s">
+      <c r="B21" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="B19" s="76" t="s">
-        <v>833</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>839</v>
-      </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="82" t="s">
-        <v>834</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>835</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>840</v>
-      </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:4" ht="75">
-      <c r="A21" s="76" t="s">
+      <c r="C21" s="32" t="s">
         <v>836</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>837</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>841</v>
       </c>
       <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="66"/>
-      <c r="B22" s="76"/>
+      <c r="B22" s="14"/>
       <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:4">
@@ -8824,1019 +9200,1572 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1">
       <c r="A24" s="67"/>
-      <c r="B24" s="63"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="63"/>
       <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:4">
-      <c r="A26" s="65" t="s">
-        <v>792</v>
-      </c>
-      <c r="B26" s="58"/>
+      <c r="A26" s="113" t="s">
+        <v>787</v>
+      </c>
+      <c r="B26" s="71"/>
       <c r="C26" s="58"/>
       <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:4" ht="45">
       <c r="A27" s="66" t="s">
-        <v>793</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>795</v>
+        <v>788</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>790</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="66"/>
       <c r="C28" s="24" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1">
       <c r="A29" s="67"/>
-      <c r="B29" s="63"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:4">
-      <c r="A31" s="65" t="s">
-        <v>796</v>
-      </c>
-      <c r="B31" s="58"/>
+      <c r="A31" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B31" s="71"/>
       <c r="C31" s="58"/>
       <c r="D31" s="59"/>
     </row>
     <row r="32" spans="1:4" ht="60">
-      <c r="A32" s="87" t="s">
-        <v>874</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>875</v>
+      <c r="A32" s="114" t="s">
+        <v>869</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>870</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" ht="105">
       <c r="A33" s="66" t="s">
-        <v>877</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>878</v>
+        <v>872</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>873</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="66"/>
+      <c r="A34" s="66" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C34" s="32"/>
       <c r="D34" s="61"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:4">
-      <c r="A40" s="65" t="s">
-        <v>696</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="68" t="s">
-        <v>385</v>
-      </c>
-      <c r="D41" s="61"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="68" t="s">
-        <v>386</v>
-      </c>
-      <c r="D42" s="61"/>
-    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="66" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="66" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="66" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="66" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="66"/>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="67"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="43" spans="1:4">
-      <c r="A43" s="68" t="s">
-        <v>697</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="D43" s="61"/>
+      <c r="A43" s="113" t="s">
+        <v>691</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="68" t="s">
-        <v>387</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>699</v>
+        <v>385</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>1178</v>
       </c>
       <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>393</v>
+        <v>1175</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>1178</v>
       </c>
       <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="68" t="s">
-        <v>700</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>701</v>
+        <v>386</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>1179</v>
       </c>
       <c r="D46" s="61"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="68" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:4" ht="30">
+      <c r="A49" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" spans="1:4" ht="45">
+      <c r="A50" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="68" t="s">
+        <v>695</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="D47" s="61"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="68" t="s">
+      <c r="B52" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B53" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="D48" s="61"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A49" s="69"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="51" spans="1:4">
-      <c r="A51" s="65" t="s">
-        <v>703</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="70" t="s">
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A54" s="69"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="113" t="s">
+        <v>698</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B57" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="135">
+      <c r="A58" s="66" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="135">
+      <c r="A59" s="66" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:4" ht="240">
+      <c r="A60" s="75" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" spans="1:4" ht="60">
+      <c r="A61" s="66" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" spans="1:4" ht="60">
+      <c r="A63" s="66" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" spans="1:4" ht="60">
+      <c r="A64" s="66" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:4" ht="60">
+      <c r="A65" s="66" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:4" ht="60">
+      <c r="A66" s="66" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:4" ht="60">
+      <c r="A67" s="66" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="66"/>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A69" s="67"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A70" s="67"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" s="113" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="75">
+      <c r="A72" s="82"/>
+      <c r="B72" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" spans="1:4" ht="45">
+      <c r="A73" s="82"/>
+      <c r="B73" s="32" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D73" s="61"/>
+    </row>
+    <row r="74" spans="1:4" ht="120">
+      <c r="A74" s="82"/>
+      <c r="B74" s="32" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A75" s="67"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="64"/>
+    </row>
+    <row r="76" spans="1:4" ht="90">
+      <c r="A76" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="75">
+      <c r="A77" s="66"/>
+      <c r="B77" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D77" s="61"/>
+    </row>
+    <row r="78" spans="1:4" ht="30">
+      <c r="A78" s="66"/>
+      <c r="B78" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D78" s="61"/>
+    </row>
+    <row r="79" spans="1:4" ht="30">
+      <c r="A79" s="66"/>
+      <c r="B79" s="32" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D79" s="61"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A80" s="67"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="64"/>
+    </row>
+    <row r="81" spans="1:4" ht="30">
+      <c r="A81" s="113" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="90">
+      <c r="A82" s="66"/>
+      <c r="B82" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D82" s="61"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="66"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="61"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="66"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="61"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="66"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="61"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="67"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="113" t="s">
+        <v>410</v>
+      </c>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="61"/>
+    </row>
+    <row r="89" spans="1:4" ht="60">
+      <c r="A89" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="61"/>
+    </row>
+    <row r="90" spans="1:4" ht="75">
+      <c r="A90" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="61"/>
+    </row>
+    <row r="91" spans="1:4" ht="195">
+      <c r="A91" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D91" s="61"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A92" s="67"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+    </row>
+    <row r="93" spans="1:4" ht="45">
+      <c r="A93" s="115" t="s">
+        <v>679</v>
+      </c>
+      <c r="B93" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="71" t="s">
         <v>680</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="D93" s="59"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="73"/>
+      <c r="B94" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="D94" s="61"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D95" s="61"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="73"/>
+      <c r="C96" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="61"/>
+    </row>
+    <row r="97" spans="1:4" ht="90">
+      <c r="A97" s="73" t="s">
+        <v>713</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="D97" s="61"/>
+    </row>
+    <row r="98" spans="1:4" ht="105">
+      <c r="A98" s="73"/>
+      <c r="B98" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="D98" s="61"/>
+    </row>
+    <row r="99" spans="1:4" ht="75">
+      <c r="A99" s="73"/>
+      <c r="B99" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="C99" s="32" t="s">
         <v>717</v>
       </c>
-      <c r="D52" s="61" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="66" t="s">
-        <v>681</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="D54" s="61"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="64"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="65" t="s">
-        <v>995</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>996</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>997</v>
-      </c>
-      <c r="D56" s="59" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="66" t="s">
-        <v>998</v>
-      </c>
-      <c r="B57" s="76" t="s">
-        <v>999</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="61"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-    </row>
-    <row r="59" spans="1:4" ht="30">
-      <c r="A59" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="C59" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="D59" s="59" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-    </row>
-    <row r="61" spans="1:4" ht="90">
-      <c r="A61" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="D61" s="59" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-    </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A64" s="67"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="64"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="D65" s="59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="64"/>
-    </row>
-    <row r="67" spans="1:4" ht="45">
-      <c r="A67" s="73" t="s">
-        <v>683</v>
-      </c>
-      <c r="B67" s="71" t="s">
+      <c r="D99" s="61"/>
+    </row>
+    <row r="100" spans="1:4" ht="75">
+      <c r="A100" s="73"/>
+      <c r="B100" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D100" s="61"/>
+    </row>
+    <row r="101" spans="1:4" ht="75">
+      <c r="A101" s="73"/>
+      <c r="B101" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D101" s="61"/>
+    </row>
+    <row r="102" spans="1:4" ht="30">
+      <c r="A102" s="73"/>
+      <c r="B102" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="D102" s="61"/>
+    </row>
+    <row r="103" spans="1:4" ht="45">
+      <c r="A103" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="D103" s="61"/>
+    </row>
+    <row r="104" spans="1:4" ht="45">
+      <c r="A104" s="73"/>
+      <c r="B104" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="D104" s="61"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="73"/>
+      <c r="B105" s="106" t="s">
+        <v>731</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D105" s="61"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="73"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D106" s="61"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="73"/>
+      <c r="B107" s="106"/>
+      <c r="C107" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D107" s="61"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="73"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D108" s="61"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="73"/>
+      <c r="B109" s="106"/>
+      <c r="C109" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="D109" s="61"/>
+    </row>
+    <row r="110" spans="1:4" ht="30">
+      <c r="A110" s="73"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D110" s="61"/>
+    </row>
+    <row r="111" spans="1:4" ht="30">
+      <c r="A111" s="73"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D111" s="61"/>
+    </row>
+    <row r="112" spans="1:4" ht="30">
+      <c r="A112" s="73"/>
+      <c r="B112" s="85" t="s">
+        <v>867</v>
+      </c>
+      <c r="C112" s="81" t="s">
+        <v>868</v>
+      </c>
+      <c r="D112" s="61"/>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="73"/>
+      <c r="B113" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>740</v>
+      </c>
+      <c r="D113" s="61"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="73"/>
+      <c r="C114" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="D114" s="61"/>
+    </row>
+    <row r="115" spans="1:5" ht="45">
+      <c r="A115" s="73"/>
+      <c r="C115" s="74" t="s">
+        <v>742</v>
+      </c>
+      <c r="D115" s="61"/>
+    </row>
+    <row r="116" spans="1:5" ht="75">
+      <c r="A116" s="73"/>
+      <c r="C116" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="D116" s="61"/>
+    </row>
+    <row r="117" spans="1:5" ht="45">
+      <c r="A117" s="73"/>
+      <c r="C117" s="74" t="s">
+        <v>744</v>
+      </c>
+      <c r="D117" s="61"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="66"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="61"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="66"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="61"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="66"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="61"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="66"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="61"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A122" s="67"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="64"/>
+    </row>
+    <row r="123" spans="1:5" ht="30">
+      <c r="A123" s="113" t="s">
+        <v>968</v>
+      </c>
+      <c r="B123" s="71" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C123" s="71" t="s">
+        <v>686</v>
+      </c>
+      <c r="D123" s="59"/>
+      <c r="E123" s="86"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A124" s="67"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="64"/>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="126" spans="1:5" ht="30">
+      <c r="A126" s="65" t="s">
+        <v>751</v>
+      </c>
+      <c r="B126" s="71" t="s">
+        <v>746</v>
+      </c>
+      <c r="C126" s="58"/>
+      <c r="D126" s="59"/>
+    </row>
+    <row r="127" spans="1:5" ht="30">
+      <c r="A127" s="66" t="s">
         <v>750</v>
       </c>
-      <c r="C67" s="71" t="s">
-        <v>684</v>
-      </c>
-      <c r="D67" s="59"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="74"/>
-      <c r="B68" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>686</v>
-      </c>
-      <c r="D68" s="61"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="74" t="s">
-        <v>687</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="D69" s="61"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="74"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="D70" s="61"/>
-    </row>
-    <row r="71" spans="1:4" ht="90">
-      <c r="A71" s="74" t="s">
-        <v>718</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="D71" s="61"/>
-    </row>
-    <row r="72" spans="1:4" ht="105">
-      <c r="A72" s="74"/>
-      <c r="B72" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>721</v>
-      </c>
-      <c r="D72" s="61"/>
-    </row>
-    <row r="73" spans="1:4" ht="75">
-      <c r="A73" s="74"/>
-      <c r="B73" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="D73" s="61"/>
-    </row>
-    <row r="74" spans="1:4" ht="75">
-      <c r="A74" s="74"/>
-      <c r="B74" s="32" t="s">
-        <v>727</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>723</v>
-      </c>
-      <c r="D74" s="61"/>
-    </row>
-    <row r="75" spans="1:4" ht="75">
-      <c r="A75" s="74"/>
-      <c r="B75" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="D75" s="61"/>
-    </row>
-    <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="74"/>
-      <c r="B76" s="32" t="s">
-        <v>730</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="D76" s="61"/>
-    </row>
-    <row r="77" spans="1:4" ht="45">
-      <c r="A77" s="32" t="s">
-        <v>731</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>733</v>
-      </c>
-      <c r="D77" s="61"/>
-    </row>
-    <row r="78" spans="1:4" ht="45">
-      <c r="A78" s="74"/>
-      <c r="B78" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>735</v>
-      </c>
-      <c r="D78" s="61"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="74"/>
-      <c r="B79" s="95" t="s">
-        <v>736</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D79" s="61"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="74"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D80" s="61"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="74"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D81" s="61"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="74"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D82" s="61"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="74"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="86" t="s">
-        <v>741</v>
-      </c>
-      <c r="D83" s="61"/>
-    </row>
-    <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="74"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D84" s="61"/>
-    </row>
-    <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="74"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D85" s="61"/>
-    </row>
-    <row r="86" spans="1:4" ht="30">
-      <c r="A86" s="74"/>
-      <c r="B86" s="83" t="s">
-        <v>872</v>
-      </c>
-      <c r="C86" s="86" t="s">
-        <v>873</v>
-      </c>
-      <c r="D86" s="61"/>
-    </row>
-    <row r="87" spans="1:4" ht="30">
-      <c r="A87" s="74"/>
-      <c r="B87" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="C87" s="75" t="s">
-        <v>745</v>
-      </c>
-      <c r="D87" s="61"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="74"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="75" t="s">
+      <c r="B127" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="D127" s="61"/>
+    </row>
+    <row r="128" spans="1:5" ht="30">
+      <c r="A128" s="66" t="s">
+        <v>749</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="D88" s="61"/>
-    </row>
-    <row r="89" spans="1:4" ht="45">
-      <c r="A89" s="74"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="75" t="s">
-        <v>747</v>
-      </c>
-      <c r="D89" s="61"/>
-    </row>
-    <row r="90" spans="1:4" ht="75">
-      <c r="A90" s="74"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32" t="s">
+      <c r="D128" s="61"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="66" t="s">
+        <v>752</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="D90" s="61"/>
-    </row>
-    <row r="91" spans="1:4" ht="45">
-      <c r="A91" s="74"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="75" t="s">
-        <v>749</v>
-      </c>
-      <c r="D91" s="61"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="66"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="61"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="66"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="61"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="66"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="61"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="66"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="61"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="64"/>
-    </row>
-    <row r="97" spans="1:5" ht="30">
-      <c r="A97" s="65" t="s">
-        <v>690</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>691</v>
-      </c>
-      <c r="D97" s="59"/>
-      <c r="E97" s="96"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A98" s="67"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="64"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="100" spans="1:5">
-      <c r="A100" s="65" t="s">
+      <c r="D129" s="61"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="66"/>
+      <c r="D130" s="61"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A131" s="67"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="64"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>429</v>
+      </c>
+      <c r="B133" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="30">
+      <c r="A134" t="s">
         <v>756</v>
       </c>
-      <c r="B100" s="58" t="s">
-        <v>751</v>
-      </c>
-      <c r="C100" s="58"/>
-      <c r="D100" s="59"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="66" t="s">
-        <v>755</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>752</v>
-      </c>
-      <c r="C101" s="24" t="s">
+      <c r="B134" s="109" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="30">
+      <c r="A135" t="s">
+        <v>772</v>
+      </c>
+      <c r="B135" s="109" t="s">
         <v>758</v>
       </c>
-      <c r="D101" s="61"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="66" t="s">
-        <v>754</v>
-      </c>
-      <c r="B102" s="76" t="s">
-        <v>751</v>
-      </c>
-      <c r="D102" s="61"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="66" t="s">
-        <v>757</v>
-      </c>
-      <c r="B103" s="76" t="s">
-        <v>753</v>
-      </c>
-      <c r="D103" s="61"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="66"/>
-      <c r="D104" s="61"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A105" s="67"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="64"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>431</v>
-      </c>
-      <c r="B107" s="77" t="s">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" s="109" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="45">
+      <c r="A137" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
+      <c r="B137" s="109" t="s">
         <v>761</v>
       </c>
-      <c r="B108" s="77" t="s">
+    </row>
+    <row r="138" spans="1:4" ht="45">
+      <c r="A138" t="s">
+        <v>771</v>
+      </c>
+      <c r="B138" s="109" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
+    <row r="139" spans="1:4" ht="45">
+      <c r="A139" t="s">
+        <v>763</v>
+      </c>
+      <c r="B139" s="109" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="30">
+      <c r="A140" t="s">
+        <v>765</v>
+      </c>
+      <c r="B140" s="109" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30">
+      <c r="A141" t="s">
+        <v>767</v>
+      </c>
+      <c r="B141" s="109" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="45">
+      <c r="A142" t="s">
+        <v>769</v>
+      </c>
+      <c r="B142" s="109" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143"/>
+      <c r="B143" s="109"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>773</v>
+      </c>
+      <c r="B144" s="109" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
+      <c r="A145" t="s">
+        <v>775</v>
+      </c>
+      <c r="B145" s="109" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
+      <c r="A146" t="s">
         <v>777</v>
       </c>
-      <c r="B109" s="77" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>437</v>
-      </c>
-      <c r="B110" s="77" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>765</v>
-      </c>
-      <c r="B111" s="77" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>776</v>
-      </c>
-      <c r="B112" s="77" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>768</v>
-      </c>
-      <c r="B113" s="77" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>770</v>
-      </c>
-      <c r="B114" s="77" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>772</v>
-      </c>
-      <c r="B115" s="77" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>774</v>
-      </c>
-      <c r="B116" s="77" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117"/>
-      <c r="B117" s="77"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="B146" s="109" t="s">
         <v>778</v>
       </c>
-      <c r="B118" s="77" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="B147" s="109" t="s">
         <v>780</v>
       </c>
-      <c r="B119" s="77" t="s">
+    </row>
+    <row r="148" spans="1:3" ht="30">
+      <c r="A148" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="B148" s="109" t="s">
         <v>782</v>
       </c>
-      <c r="B120" s="77" t="s">
+    </row>
+    <row r="149" spans="1:3" ht="30">
+      <c r="A149" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="B149" s="109" t="s">
         <v>784</v>
       </c>
-      <c r="B121" s="77" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>786</v>
-      </c>
-      <c r="B122" s="77" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>788</v>
-      </c>
-      <c r="B123" s="77" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="125" spans="1:3">
-      <c r="A125" s="78" t="s">
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="151" spans="1:3">
+      <c r="A151" s="113" t="s">
+        <v>791</v>
+      </c>
+      <c r="B151" s="110" t="s">
+        <v>792</v>
+      </c>
+      <c r="C151" s="59"/>
+    </row>
+    <row r="152" spans="1:3" ht="75">
+      <c r="A152" s="76" t="s">
+        <v>795</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="C152" s="77" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="120">
+      <c r="A153" s="76" t="s">
+        <v>798</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="C153" s="77" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="90">
+      <c r="A154" s="76" t="s">
         <v>796</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B154" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="C154" s="77" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30">
+      <c r="A155" s="76" t="s">
         <v>797</v>
       </c>
-      <c r="C125" s="59"/>
-    </row>
-    <row r="126" spans="1:3" ht="75">
-      <c r="A126" s="80" t="s">
-        <v>800</v>
-      </c>
-      <c r="B126" s="14" t="s">
+      <c r="B155" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="C155" s="61"/>
+    </row>
+    <row r="156" spans="1:3" ht="45">
+      <c r="A156" s="66" t="s">
+        <v>803</v>
+      </c>
+      <c r="B156" s="32" t="s">
         <v>804</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C156" s="77" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30">
+      <c r="A157" s="66" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="120">
-      <c r="A127" s="80" t="s">
-        <v>803</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>967</v>
-      </c>
-      <c r="C127" s="81" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="90">
-      <c r="A128" s="80" t="s">
-        <v>801</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="C128" s="81" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="80" t="s">
-        <v>802</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="C129" s="61"/>
-    </row>
-    <row r="130" spans="1:3" ht="45">
-      <c r="A130" s="66" t="s">
+      <c r="B157" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C157" s="61" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="66"/>
+      <c r="B158" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B130" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="C130" s="81" t="s">
+      <c r="C158" s="61" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="66" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="66" t="s">
+        <v>815</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="C159" s="61"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="66" t="s">
+        <v>817</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="C160" s="61"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="66" t="s">
+        <v>819</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="C161" s="61"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="66" t="s">
+        <v>821</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C162" s="61"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="66" t="s">
+        <v>860</v>
+      </c>
+      <c r="B163" s="14"/>
+      <c r="C163" s="61"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="66"/>
+      <c r="C164" s="61"/>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A165" s="67"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="64"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="B131" s="76" t="s">
+      <c r="B167" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="C131" s="61" t="s">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="B168" s="32" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="66"/>
-      <c r="B132" s="76" t="s">
-        <v>813</v>
-      </c>
-      <c r="C132" s="61" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="66" t="s">
-        <v>820</v>
-      </c>
-      <c r="B133" s="76" t="s">
-        <v>821</v>
-      </c>
-      <c r="C133" s="61"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="66" t="s">
-        <v>822</v>
-      </c>
-      <c r="B134" s="76" t="s">
-        <v>823</v>
-      </c>
-      <c r="C134" s="61"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="66" t="s">
-        <v>824</v>
-      </c>
-      <c r="B135" s="76" t="s">
-        <v>825</v>
-      </c>
-      <c r="C135" s="61"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="66" t="s">
-        <v>826</v>
-      </c>
-      <c r="B136" s="76" t="s">
-        <v>827</v>
-      </c>
-      <c r="C136" s="61"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="66" t="s">
-        <v>865</v>
-      </c>
-      <c r="B137" s="76"/>
-      <c r="C137" s="61"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="66"/>
-      <c r="C138" s="61"/>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="67"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="64"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B144" s="24" t="s">
+    <row r="170" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B170" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C170" s="32"/>
+    </row>
+    <row r="171" spans="1:3" ht="60">
+      <c r="A171" s="113" t="s">
+        <v>963</v>
+      </c>
+      <c r="B171" s="71" t="s">
         <v>969</v>
       </c>
-      <c r="C144" s="32"/>
-    </row>
-    <row r="145" spans="1:3" ht="60">
-      <c r="A145" s="65" t="s">
-        <v>968</v>
-      </c>
-      <c r="B145" s="71" t="s">
+      <c r="C171" s="97" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="105">
+      <c r="A172" s="76" t="s">
+        <v>970</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C172" s="77" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="75">
+      <c r="A173" s="76"/>
+      <c r="C173" s="77" t="s">
         <v>974</v>
       </c>
-      <c r="C145" s="108" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="105">
-      <c r="A146" s="80" t="s">
+    </row>
+    <row r="174" spans="1:3" ht="120">
+      <c r="A174" s="76"/>
+      <c r="B174" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="B146" s="32" t="s">
-        <v>977</v>
-      </c>
-      <c r="C146" s="81" t="s">
+      <c r="C174" s="77" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="75">
-      <c r="A147" s="80"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="81" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="120">
-      <c r="A148" s="80"/>
-      <c r="B148" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="C148" s="81" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A149" s="109"/>
-      <c r="B149" s="110"/>
-      <c r="C149" s="111"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="76"/>
-      <c r="B150" s="76"/>
-      <c r="C150" s="32"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="76"/>
-      <c r="B151" s="76"/>
-      <c r="C151" s="32"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="76"/>
-      <c r="B152" s="76"/>
-      <c r="C152" s="32"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="76"/>
-      <c r="B153" s="76"/>
-      <c r="C153" s="32"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="76"/>
-      <c r="B154" s="76"/>
-      <c r="C154" s="32"/>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A175" s="98"/>
+      <c r="B175" s="111"/>
+      <c r="C175" s="99"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="75"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="32"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="240">
+      <c r="A179" s="116" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C179" s="32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D179" s="32" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A180" s="75"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="32"/>
+    </row>
+    <row r="181" spans="1:4" ht="60">
+      <c r="A181" s="113" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B181" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C181" s="71" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D181" s="59"/>
+    </row>
+    <row r="182" spans="1:4" ht="105">
+      <c r="A182" s="66"/>
+      <c r="B182" s="32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D182" s="61"/>
+    </row>
+    <row r="183" spans="1:4" ht="105">
+      <c r="A183" s="66"/>
+      <c r="B183" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D183" s="61"/>
+    </row>
+    <row r="184" spans="1:4" ht="90">
+      <c r="A184" s="66"/>
+      <c r="B184" s="32" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D184" s="61"/>
+    </row>
+    <row r="185" spans="1:4" ht="105">
+      <c r="A185" s="66"/>
+      <c r="B185" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D185" s="61"/>
+    </row>
+    <row r="186" spans="1:4" ht="135">
+      <c r="A186" s="66"/>
+      <c r="B186" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D186" s="61"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="66"/>
+      <c r="B187" s="32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D187" s="61"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="66" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B188" s="112" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D188" s="61"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="66"/>
+      <c r="B189" s="112" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D189" s="61"/>
+    </row>
+    <row r="190" spans="1:4" ht="60">
+      <c r="A190" s="66"/>
+      <c r="B190" s="112" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D190" s="61"/>
+    </row>
+    <row r="191" spans="1:4" ht="105">
+      <c r="A191" s="66"/>
+      <c r="B191" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C191" s="32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D191" s="61"/>
+    </row>
+    <row r="192" spans="1:4" ht="60">
+      <c r="A192" s="66"/>
+      <c r="B192" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D192" s="61"/>
+    </row>
+    <row r="193" spans="1:4" ht="60">
+      <c r="A193" s="66"/>
+      <c r="B193" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D193" s="61"/>
+    </row>
+    <row r="194" spans="1:4" ht="60">
+      <c r="A194" s="66"/>
+      <c r="B194" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D194" s="61"/>
+    </row>
+    <row r="195" spans="1:4" ht="75">
+      <c r="A195" s="66"/>
+      <c r="B195" s="32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D195" s="61"/>
+    </row>
+    <row r="196" spans="1:4" ht="90">
+      <c r="A196" s="66"/>
+      <c r="B196" s="24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D196" s="61"/>
+    </row>
+    <row r="197" spans="1:4" ht="30">
+      <c r="A197" s="66"/>
+      <c r="B197" s="32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D197" s="61"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="66" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D198" s="61"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="66"/>
+      <c r="B199" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D199" s="61"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="66"/>
+      <c r="B200" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D200" s="61"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="66"/>
+      <c r="B201" s="32" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D201" s="61"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="66"/>
+      <c r="B202" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D202" s="61"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="66"/>
+      <c r="B203" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D203" s="61"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="66"/>
+      <c r="B204" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D204" s="61"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="66" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D205" s="61"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="66"/>
+      <c r="B206" s="32" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D206" s="61"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="66"/>
+      <c r="B207" s="32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D207" s="61"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="66"/>
+      <c r="B208" s="32" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D208" s="61"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="66"/>
+      <c r="B209" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D209" s="61"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="66"/>
+      <c r="B210" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D210" s="61"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="66"/>
+      <c r="B211" s="32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D211" s="61"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="66"/>
+      <c r="B212" s="32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D212" s="61"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="66"/>
+      <c r="B213" s="32" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D213" s="61"/>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A214" s="67"/>
+      <c r="B214" s="72"/>
+      <c r="C214" s="63"/>
+      <c r="D214" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B105:B111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9845,10 +10774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9860,411 +10789,411 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="37" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>416</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>418</v>
       </c>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>419</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>421</v>
       </c>
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>422</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>425</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>427</v>
       </c>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>428</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>430</v>
       </c>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>431</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>436</v>
       </c>
       <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>439</v>
       </c>
       <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>440</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>442</v>
       </c>
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>443</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>445</v>
       </c>
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>448</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>451</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>453</v>
       </c>
       <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>460</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>462</v>
       </c>
       <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>465</v>
       </c>
       <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="43" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>468</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="30.75">
       <c r="A21" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>474</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>476</v>
       </c>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>477</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>479</v>
       </c>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>480</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>482</v>
       </c>
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>483</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>485</v>
       </c>
       <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>488</v>
       </c>
       <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>492</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>497</v>
       </c>
       <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="30.75">
       <c r="A30" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>501</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>503</v>
       </c>
       <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>508</v>
       </c>
       <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D34" s="28"/>
     </row>
@@ -10273,10 +11202,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D35" s="28"/>
     </row>
@@ -10285,82 +11214,82 @@
         <v>0</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>513</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>515</v>
       </c>
       <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>516</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>518</v>
       </c>
       <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>519</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>521</v>
       </c>
       <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>524</v>
       </c>
       <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>527</v>
       </c>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>528</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>530</v>
       </c>
       <c r="D42" s="31"/>
     </row>
@@ -10369,7 +11298,7 @@
         <v>355</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
@@ -10379,7 +11308,7 @@
         <v>356</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="28"/>
@@ -10389,7 +11318,7 @@
         <v>357</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="28"/>
@@ -10399,7 +11328,7 @@
         <v>358</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="28"/>
@@ -10409,7 +11338,7 @@
         <v>359</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="28"/>
@@ -10419,7 +11348,7 @@
         <v>360</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="28"/>
@@ -10429,7 +11358,7 @@
         <v>361</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="28"/>
@@ -10439,27 +11368,27 @@
         <v>362</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="28"/>
@@ -10469,7 +11398,7 @@
         <v>369</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="28"/>
@@ -10529,10 +11458,10 @@
         <v>355</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D59" s="26"/>
     </row>
@@ -10541,154 +11470,154 @@
         <v>351</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>547</v>
       </c>
       <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>550</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>552</v>
       </c>
       <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>558</v>
       </c>
       <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:4" ht="30">
       <c r="A66" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>561</v>
       </c>
       <c r="D66" s="28"/>
     </row>
     <row r="67" spans="1:4" ht="30">
       <c r="A67" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>562</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" ht="30">
       <c r="A68" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>567</v>
       </c>
       <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="30">
       <c r="A69" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>568</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>573</v>
       </c>
       <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>574</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="D71" s="28"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="D72" s="28"/>
     </row>
@@ -10697,10 +11626,10 @@
         <v>352</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>375</v>
@@ -10711,34 +11640,34 @@
         <v>350</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" ht="30.75" thickBot="1">
       <c r="A75" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C75" s="47" t="s">
         <v>584</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>586</v>
       </c>
       <c r="D75" s="31"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D76" s="26"/>
     </row>
@@ -10747,10 +11676,10 @@
         <v>340</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D77" s="28"/>
     </row>
@@ -10759,443 +11688,453 @@
         <v>339</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D78" s="28"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="43" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D79" s="28"/>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="43" t="s">
-        <v>592</v>
-      </c>
+    <row r="80" spans="1:4" ht="60">
+      <c r="A80" s="43"/>
       <c r="B80" s="22" t="s">
-        <v>593</v>
+        <v>1084</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>594</v>
+        <v>1083</v>
       </c>
       <c r="D80" s="28"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="43" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>707</v>
+        <v>591</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D81" s="28"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="43" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="43" t="s">
-        <v>338</v>
+        <v>595</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D83" s="28"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="43" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>602</v>
+        <v>704</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="43" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="43" t="s">
-        <v>337</v>
+        <v>602</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D87" s="28"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="43" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>711</v>
+        <v>607</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="43" t="s">
-        <v>612</v>
+        <v>342</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D89" s="28"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="43" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D90" s="28"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="43" t="s">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D91" s="28"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="43" t="s">
-        <v>619</v>
+        <v>343</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="43" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D93" s="28"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="43" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D94" s="28"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="43" t="s">
-        <v>344</v>
+        <v>623</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="43" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="43" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="43" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D98" s="28"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="43" t="s">
-        <v>635</v>
+        <v>341</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D99" s="28"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="43" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D100" s="28"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="43" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D101" s="28"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="43" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D102" s="28"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="43" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D103" s="28"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="43" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D104" s="28"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="43" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D105" s="28"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="D106" s="28"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="43" t="s">
+        <v>654</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="D106" s="28"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C107" s="19"/>
       <c r="D107" s="28"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="51" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="28"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="52" t="s">
-        <v>712</v>
-      </c>
-      <c r="B109" s="40" t="s">
+      <c r="A109" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="28"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="B110" s="40" t="s">
         <v>349</v>
-      </c>
-      <c r="C109" s="40"/>
-      <c r="D109" s="28"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="53" t="s">
-        <v>713</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>348</v>
       </c>
       <c r="C110" s="40"/>
       <c r="D110" s="28"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="27" t="s">
-        <v>353</v>
+      <c r="A111" s="53" t="s">
+        <v>708</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>354</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C111" s="40"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D112" s="48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B113" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="28"/>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A113" s="29" t="s">
+      <c r="C113" s="19"/>
+      <c r="D113" s="28"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A114" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="B113" s="49" t="s">
+      <c r="B114" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
-    </row>
-    <row r="114" spans="1:4" ht="30">
-      <c r="A114" s="84" t="s">
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
+    </row>
+    <row r="115" spans="1:4" ht="30">
+      <c r="A115" s="79" t="s">
+        <v>861</v>
+      </c>
+      <c r="B115" s="80" t="s">
+        <v>862</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30">
+      <c r="A116" s="79" t="s">
+        <v>864</v>
+      </c>
+      <c r="B116" s="80" t="s">
+        <v>865</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B114" s="85" t="s">
-        <v>867</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30">
-      <c r="A115" s="84" t="s">
-        <v>869</v>
-      </c>
-      <c r="B115" s="85" t="s">
-        <v>870</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -11205,169 +12144,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="6" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B6" s="15" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B7" s="16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B8" s="16" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B10" s="16" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B11" s="16" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="15" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B15" s="16" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B16" s="16" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B17" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="21" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B21" s="15" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B22" s="16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B23" s="16" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B25" s="16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B26" s="16" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B27" s="16" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="31" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B31" s="16" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B32" s="18" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="12" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="112" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="112" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="112" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -11385,17 +12161,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11403,70 +12179,70 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="12" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="12" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="12" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="12" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B14" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="165">
       <c r="B19" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -11480,390 +12256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="73.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="88" t="s">
-        <v>881</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="88" t="s">
-        <v>884</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="88" t="s">
-        <v>882</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="88" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>905</v>
-      </c>
-      <c r="C5" s="59"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="88" t="s">
-        <v>892</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>893</v>
-      </c>
-      <c r="C6" s="61"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="88" t="s">
-        <v>894</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>895</v>
-      </c>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="88" t="s">
-        <v>896</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>897</v>
-      </c>
-      <c r="C8" s="61"/>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="88" t="s">
-        <v>898</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>899</v>
-      </c>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="88" t="s">
-        <v>900</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>901</v>
-      </c>
-      <c r="C10" s="61"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="88" t="s">
-        <v>902</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>903</v>
-      </c>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="88" t="s">
-        <v>887</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="88" t="s">
-        <v>890</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="75">
-      <c r="A16" s="88" t="s">
-        <v>891</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="88" t="s">
-        <v>906</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="88" t="s">
-        <v>908</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="88" t="s">
-        <v>910</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="88" t="s">
-        <v>911</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="88" t="s">
-        <v>913</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="89" t="s">
-        <v>915</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="88" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="88" t="s">
-        <v>920</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="88" t="s">
-        <v>922</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="89" t="s">
-        <v>924</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="89" t="s">
-        <v>926</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="88" t="s">
-        <v>930</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="88" t="s">
-        <v>929</v>
-      </c>
-      <c r="B30" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="88" t="s">
-        <v>932</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="88" t="s">
-        <v>934</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="88" t="s">
-        <v>936</v>
-      </c>
-      <c r="B33" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="88" t="s">
-        <v>938</v>
-      </c>
-      <c r="B34" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="89" t="s">
-        <v>940</v>
-      </c>
-      <c r="B35" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="88" t="s">
-        <v>942</v>
-      </c>
-      <c r="B36" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="88" t="s">
-        <v>944</v>
-      </c>
-      <c r="B37" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="88" t="s">
-        <v>946</v>
-      </c>
-      <c r="B38" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="89" t="s">
-        <v>948</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="88" t="s">
-        <v>950</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="88" t="s">
-        <v>952</v>
-      </c>
-      <c r="B41" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="89" t="s">
-        <v>954</v>
-      </c>
-      <c r="B42" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="89" t="s">
-        <v>956</v>
-      </c>
-      <c r="B43" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="89" t="s">
-        <v>958</v>
-      </c>
-      <c r="B44" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="89" t="s">
-        <v>960</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="60">
-      <c r="A46" s="89" t="s">
-        <v>962</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="88" t="s">
-        <v>964</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD119"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11878,363 +12276,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="98"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="G1" s="75" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="91" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>980</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="91" t="s">
+        <v>998</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>968</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>980</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>999</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>978</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>981</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="91" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>988</v>
+      </c>
+      <c r="E4" s="92" t="s">
         <v>1003</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="G1" s="76" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="101" t="s">
-        <v>990</v>
-      </c>
-      <c r="B2" s="97" t="s">
+      <c r="G4" s="75" t="s">
+        <v>982</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="91" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>983</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="91" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>973</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>984</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="91" t="s">
+        <v>983</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>992</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="D7" s="87" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>979</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>978</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="91" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>982</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="91" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G9" s="75" t="s">
         <v>1004</v>
       </c>
-      <c r="D2" s="97" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>985</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="101" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>973</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>985</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E3" s="102" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="91" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>981</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="91" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="91" t="s">
+        <v>977</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>967</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>963</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="91" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>989</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="91" t="s">
+        <v>984</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G14" s="75" t="s">
         <v>983</v>
       </c>
-      <c r="G3" s="76" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="91" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="91" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E16" s="92" t="s">
         <v>986</v>
       </c>
-      <c r="H3" s="76" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="101" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D4" s="97" t="s">
+      <c r="G16" s="75" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="93" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B17" s="94" t="s">
         <v>993</v>
       </c>
-      <c r="E4" s="102" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>987</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="101" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>988</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="101" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>978</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>989</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="101" t="s">
-        <v>988</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>998</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>984</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>983</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="101" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>987</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="101" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="101" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>986</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="101" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="101" t="s">
-        <v>982</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>972</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>968</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="101" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>994</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="101" t="s">
-        <v>989</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D14" s="97" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="101" t="s">
+      <c r="C17" s="94" t="s">
         <v>1052</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="D17" s="94" t="s">
+        <v>966</v>
+      </c>
+      <c r="E17" s="95" t="s">
         <v>1053</v>
       </c>
-      <c r="C15" s="97" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="75" customHeight="1">
+      <c r="A18" s="107" t="s">
         <v>1054</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>991</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="103" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D17" s="104" t="s">
-        <v>971</v>
-      </c>
-      <c r="E17" s="105" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" customHeight="1">
-      <c r="A18" s="106" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12327,4 +12725,713 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId81"/>
   <legacyDrawing r:id="rId82"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="91" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="91" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="91" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="91" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="91" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="91" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="91" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="91" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="91" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="91" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="91" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="91" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="91" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="91" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="91" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A16" s="93" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="87" t="s">
+        <v>987</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="87" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="87" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="87" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="87" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="87" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="87" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="87" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="87" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="87" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="87" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="87" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="87" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="87" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="87" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A33" s="94" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="87" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="87" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="87" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="87" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="87" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="87" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="87" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="87" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="87" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="87" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="87" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="87" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="87" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="87" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A50" s="94" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="87" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45">
+      <c r="A53" s="87" t="s">
+        <v>999</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45">
+      <c r="A54" s="87" t="s">
+        <v>988</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="87" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="87" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="87" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="87" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="87" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="87" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="87" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="87" t="s">
+        <v>967</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="135">
+      <c r="A63" s="87" t="s">
+        <v>989</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="87" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="87" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="87" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A67" s="94" t="s">
+        <v>966</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="92" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="92" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="92" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="92" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="92" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="92" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="92" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="92" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="92" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="92" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="92" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="92" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="92" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="92" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="165">
+      <c r="A83" s="92" t="s">
+        <v>986</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A84" s="95" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="abs" tooltip="abs" display="http://docs.python.org/2/library/functions.html - abs"/>
+    <hyperlink ref="A2" r:id="rId2" location="all" tooltip="all" display="http://docs.python.org/2/library/functions.html - all"/>
+    <hyperlink ref="A3" r:id="rId3" location="any" tooltip="any" display="http://docs.python.org/2/library/functions.html - any"/>
+    <hyperlink ref="A4" r:id="rId4" location="basestring" tooltip="basestring" display="http://docs.python.org/2/library/functions.html - basestring"/>
+    <hyperlink ref="A5" r:id="rId5" location="bin" tooltip="bin" display="http://docs.python.org/2/library/functions.html - bin"/>
+    <hyperlink ref="A6" r:id="rId6" location="bool" tooltip="bool" display="http://docs.python.org/2/library/functions.html - bool"/>
+    <hyperlink ref="A7" r:id="rId7" location="bytearray" tooltip="bytearray" display="http://docs.python.org/2/library/functions.html - bytearray"/>
+    <hyperlink ref="A8" r:id="rId8" location="callable" tooltip="callable" display="http://docs.python.org/2/library/functions.html - callable"/>
+    <hyperlink ref="A9" r:id="rId9" location="chr" tooltip="chr" display="http://docs.python.org/2/library/functions.html - chr"/>
+    <hyperlink ref="A10" r:id="rId10" location="classmethod" tooltip="classmethod" display="http://docs.python.org/2/library/functions.html - classmethod"/>
+    <hyperlink ref="A11" r:id="rId11" location="cmp" tooltip="cmp" display="http://docs.python.org/2/library/functions.html - cmp"/>
+    <hyperlink ref="A12" r:id="rId12" location="compile" tooltip="compile" display="http://docs.python.org/2/library/functions.html - compile"/>
+    <hyperlink ref="A13" r:id="rId13" location="complex" tooltip="complex" display="http://docs.python.org/2/library/functions.html - complex"/>
+    <hyperlink ref="A14" r:id="rId14" location="delattr" tooltip="delattr" display="http://docs.python.org/2/library/functions.html - delattr"/>
+    <hyperlink ref="A15" r:id="rId15" location="func-dict" display="http://docs.python.org/2/library/functions.html - func-dict"/>
+    <hyperlink ref="A16" r:id="rId16" location="dir" tooltip="dir" display="http://docs.python.org/2/library/functions.html - dir"/>
+    <hyperlink ref="A18" r:id="rId17" location="divmod" tooltip="divmod" display="http://docs.python.org/2/library/functions.html - divmod"/>
+    <hyperlink ref="A19" r:id="rId18" location="enumerate" tooltip="enumerate" display="http://docs.python.org/2/library/functions.html - enumerate"/>
+    <hyperlink ref="A20" r:id="rId19" location="eval" tooltip="eval" display="http://docs.python.org/2/library/functions.html - eval"/>
+    <hyperlink ref="A21" r:id="rId20" location="execfile" tooltip="execfile" display="http://docs.python.org/2/library/functions.html - execfile"/>
+    <hyperlink ref="A22" r:id="rId21" location="file" tooltip="file" display="http://docs.python.org/2/library/functions.html - file"/>
+    <hyperlink ref="A23" r:id="rId22" location="filter" tooltip="filter" display="http://docs.python.org/2/library/functions.html - filter"/>
+    <hyperlink ref="A24" r:id="rId23" location="float" tooltip="float" display="http://docs.python.org/2/library/functions.html - float"/>
+    <hyperlink ref="A25" r:id="rId24" location="format" tooltip="format" display="http://docs.python.org/2/library/functions.html - format"/>
+    <hyperlink ref="A26" r:id="rId25" location="func-frozenset" display="http://docs.python.org/2/library/functions.html - func-frozenset"/>
+    <hyperlink ref="A27" r:id="rId26" location="getattr" tooltip="getattr" display="http://docs.python.org/2/library/functions.html - getattr"/>
+    <hyperlink ref="A28" r:id="rId27" location="globals" tooltip="globals" display="http://docs.python.org/2/library/functions.html - globals"/>
+    <hyperlink ref="A29" r:id="rId28" location="hasattr" tooltip="hasattr" display="http://docs.python.org/2/library/functions.html - hasattr"/>
+    <hyperlink ref="A30" r:id="rId29" location="hash" tooltip="hash" display="http://docs.python.org/2/library/functions.html - hash"/>
+    <hyperlink ref="A31" r:id="rId30" location="help" tooltip="help" display="http://docs.python.org/2/library/functions.html - help"/>
+    <hyperlink ref="A32" r:id="rId31" location="hex" tooltip="hex" display="http://docs.python.org/2/library/functions.html - hex"/>
+    <hyperlink ref="A33" r:id="rId32" location="id" tooltip="id" display="http://docs.python.org/2/library/functions.html - id"/>
+    <hyperlink ref="A35" r:id="rId33" location="input" tooltip="input" display="http://docs.python.org/2/library/functions.html - input"/>
+    <hyperlink ref="A36" r:id="rId34" location="int" tooltip="int" display="http://docs.python.org/2/library/functions.html - int"/>
+    <hyperlink ref="A37" r:id="rId35" location="isinstance" tooltip="isinstance" display="http://docs.python.org/2/library/functions.html - isinstance"/>
+    <hyperlink ref="A38" r:id="rId36" location="issubclass" tooltip="issubclass" display="http://docs.python.org/2/library/functions.html - issubclass"/>
+    <hyperlink ref="A39" r:id="rId37" location="iter" tooltip="iter" display="http://docs.python.org/2/library/functions.html - iter"/>
+    <hyperlink ref="A40" r:id="rId38" location="len" tooltip="len" display="http://docs.python.org/2/library/functions.html - len"/>
+    <hyperlink ref="A41" r:id="rId39" location="list" tooltip="list" display="http://docs.python.org/2/library/functions.html - list"/>
+    <hyperlink ref="A42" r:id="rId40" location="locals" tooltip="locals" display="http://docs.python.org/2/library/functions.html - locals"/>
+    <hyperlink ref="A43" r:id="rId41" location="long" tooltip="long" display="http://docs.python.org/2/library/functions.html - long"/>
+    <hyperlink ref="A44" r:id="rId42" location="map" tooltip="map" display="http://docs.python.org/2/library/functions.html - map"/>
+    <hyperlink ref="A45" r:id="rId43" location="max" tooltip="max" display="http://docs.python.org/2/library/functions.html - max"/>
+    <hyperlink ref="A46" r:id="rId44" location="func-memoryview" display="http://docs.python.org/2/library/functions.html - func-memoryview"/>
+    <hyperlink ref="A47" r:id="rId45" location="min" tooltip="min" display="http://docs.python.org/2/library/functions.html - min"/>
+    <hyperlink ref="A48" r:id="rId46" location="next" tooltip="next" display="http://docs.python.org/2/library/functions.html - next"/>
+    <hyperlink ref="A49" r:id="rId47" location="object" tooltip="object" display="http://docs.python.org/2/library/functions.html - object"/>
+    <hyperlink ref="A50" r:id="rId48" location="oct" tooltip="oct" display="http://docs.python.org/2/library/functions.html - oct"/>
+    <hyperlink ref="A52" r:id="rId49" location="open" tooltip="open" display="http://docs.python.org/2/library/functions.html - open"/>
+    <hyperlink ref="A53" r:id="rId50" location="ord" tooltip="ord" display="http://docs.python.org/2/library/functions.html - ord"/>
+    <hyperlink ref="A54" r:id="rId51" location="pow" tooltip="pow" display="http://docs.python.org/2/library/functions.html - pow"/>
+    <hyperlink ref="A55" r:id="rId52" location="print" tooltip="print" display="http://docs.python.org/2/library/functions.html - print"/>
+    <hyperlink ref="A56" r:id="rId53" location="property" tooltip="property" display="http://docs.python.org/2/library/functions.html - property"/>
+    <hyperlink ref="A57" r:id="rId54" location="range" tooltip="range" display="http://docs.python.org/2/library/functions.html - range"/>
+    <hyperlink ref="A58" r:id="rId55" location="raw_input" tooltip="raw_input" display="http://docs.python.org/2/library/functions.html - raw_input"/>
+    <hyperlink ref="A59" r:id="rId56" location="reduce" tooltip="reduce" display="http://docs.python.org/2/library/functions.html - reduce"/>
+    <hyperlink ref="A60" r:id="rId57" location="reload" tooltip="reload" display="http://docs.python.org/2/library/functions.html - reload"/>
+    <hyperlink ref="A61" r:id="rId58" location="func-repr" display="http://docs.python.org/2/library/functions.html - func-repr"/>
+    <hyperlink ref="A62" r:id="rId59" location="reversed" tooltip="reversed" display="http://docs.python.org/2/library/functions.html - reversed"/>
+    <hyperlink ref="A63" r:id="rId60" location="round" tooltip="round" display="http://docs.python.org/2/library/functions.html - round"/>
+    <hyperlink ref="A64" r:id="rId61" location="func-set" display="http://docs.python.org/2/library/functions.html - func-set"/>
+    <hyperlink ref="A65" r:id="rId62" location="setattr" tooltip="setattr" display="http://docs.python.org/2/library/functions.html - setattr"/>
+    <hyperlink ref="A66" r:id="rId63" location="slice" tooltip="slice" display="http://docs.python.org/2/library/functions.html - slice"/>
+    <hyperlink ref="A67" r:id="rId64" location="sorted" tooltip="sorted" display="http://docs.python.org/2/library/functions.html - sorted"/>
+    <hyperlink ref="A69" r:id="rId65" location="staticmethod" tooltip="staticmethod" display="http://docs.python.org/2/library/functions.html - staticmethod"/>
+    <hyperlink ref="A70" r:id="rId66" location="str" tooltip="str" display="http://docs.python.org/2/library/functions.html - str"/>
+    <hyperlink ref="A71" r:id="rId67" location="sum" tooltip="sum" display="http://docs.python.org/2/library/functions.html - sum"/>
+    <hyperlink ref="A72" r:id="rId68" location="super" tooltip="super" display="http://docs.python.org/2/library/functions.html - super"/>
+    <hyperlink ref="A73" r:id="rId69" location="tuple" tooltip="tuple" display="http://docs.python.org/2/library/functions.html - tuple"/>
+    <hyperlink ref="A74" r:id="rId70" location="type" tooltip="type" display="http://docs.python.org/2/library/functions.html - type"/>
+    <hyperlink ref="A75" r:id="rId71" location="unichr" tooltip="unichr" display="http://docs.python.org/2/library/functions.html - unichr"/>
+    <hyperlink ref="A76" r:id="rId72" location="unicode" tooltip="unicode" display="http://docs.python.org/2/library/functions.html - unicode"/>
+    <hyperlink ref="A77" r:id="rId73" location="vars" tooltip="vars" display="http://docs.python.org/2/library/functions.html - vars"/>
+    <hyperlink ref="A78" r:id="rId74" location="xrange" tooltip="xrange" display="http://docs.python.org/2/library/functions.html - xrange"/>
+    <hyperlink ref="A79" r:id="rId75" location="zip" tooltip="zip" display="http://docs.python.org/2/library/functions.html - zip"/>
+    <hyperlink ref="A80" r:id="rId76" location="__import__" tooltip="__import__" display="http://docs.python.org/2/library/functions.html - __import__"/>
+    <hyperlink ref="A81" r:id="rId77" location="apply" tooltip="apply" display="http://docs.python.org/2/library/functions.html - apply"/>
+    <hyperlink ref="A82" r:id="rId78" location="buffer" tooltip="buffer" display="http://docs.python.org/2/library/functions.html - buffer"/>
+    <hyperlink ref="A83" r:id="rId79" location="coerce" tooltip="coerce" display="http://docs.python.org/2/library/functions.html - coerce"/>
+    <hyperlink ref="A84" r:id="rId80" location="intern" tooltip="intern" display="http://docs.python.org/2/library/functions.html - intern"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId81"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B6" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B7" s="16" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B8" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B10" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B11" s="16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B15" s="16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B16" s="16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B17" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="21" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B21" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B22" s="16" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B23" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B25" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B26" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B27" s="16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="31" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B31" s="16" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B32" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="12" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="100" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="100" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="100" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>